--- a/shifts.xlsx
+++ b/shifts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nuveprotech-my.sharepoint.com/personal/rudragouda_nuvepro_com/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7AB1A1F2-F0E5-4FB4-9302-12720C42FFC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{7AB1A1F2-F0E5-4FB4-9302-12720C42FFC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D1218149-413E-4289-B8C3-CA86598AA4D9}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10296" xr2:uid="{FABE5A98-6523-4F8A-BFDD-DCE45C50B346}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>Name</t>
   </si>
@@ -59,10 +59,13 @@
     <t>Ravi</t>
   </si>
   <si>
-    <t>Off Duty</t>
-  </si>
-  <si>
     <t>Meena</t>
+  </si>
+  <si>
+    <t>Sneha</t>
+  </si>
+  <si>
+    <t>Leave</t>
   </si>
 </sst>
 </file>
@@ -451,10 +454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{253AA20A-4ECD-4466-A4F7-C82AD4D704EF}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection sqref="A1:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -495,30 +498,44 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="3">
-        <v>0.70833333333333337</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="C3" s="3">
-        <v>4.1666666666666664E-2</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4" s="3">
-        <v>0.33333333333333331</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="C4" s="3">
-        <v>0.66666666666666663</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
